--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>0.5928254327683332</v>
+        <v>0.5452625172750001</v>
       </c>
       <c r="R2">
-        <v>5.335428894914999</v>
+        <v>4.907362655475001</v>
       </c>
       <c r="S2">
-        <v>1.067616142182985E-05</v>
+        <v>1.976449269189524E-05</v>
       </c>
       <c r="T2">
-        <v>1.067616142182985E-05</v>
+        <v>1.976449269189524E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>615.1105926916755</v>
+        <v>330.1909545579751</v>
       </c>
       <c r="R3">
-        <v>5535.99533422508</v>
+        <v>2971.718591021775</v>
       </c>
       <c r="S3">
-        <v>0.01107749367159835</v>
+        <v>0.0119686508819744</v>
       </c>
       <c r="T3">
-        <v>0.01107749367159835</v>
+        <v>0.0119686508819744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>643.5100017356705</v>
+        <v>0.0243029969</v>
       </c>
       <c r="R4">
-        <v>5791.590015621034</v>
+        <v>0.2187269721</v>
       </c>
       <c r="S4">
-        <v>0.01158893710583567</v>
+        <v>8.809268735759215E-07</v>
       </c>
       <c r="T4">
-        <v>0.01158893710583567</v>
+        <v>8.809268735759215E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.5890806666667</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>421.767242</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.7675494732291734</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.7675494732291737</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>20.06529535998866</v>
+        <v>234.700200861875</v>
       </c>
       <c r="R5">
-        <v>180.587658239898</v>
+        <v>2112.301807756875</v>
       </c>
       <c r="S5">
-        <v>0.0003613548279121258</v>
+        <v>0.008507334096433693</v>
       </c>
       <c r="T5">
-        <v>0.0003613548279121258</v>
+        <v>0.008507334096433693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>421.767242</v>
       </c>
       <c r="I6">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J6">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>20819.57864692245</v>
+        <v>20.06529535998867</v>
       </c>
       <c r="R6">
-        <v>187376.2078223021</v>
+        <v>180.587658239898</v>
       </c>
       <c r="S6">
-        <v>0.3749386751696379</v>
+        <v>0.0007273200906696515</v>
       </c>
       <c r="T6">
-        <v>0.374938675169638</v>
+        <v>0.0007273200906696516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>21780.81023217325</v>
+        <v>12150.8059301661</v>
       </c>
       <c r="R7">
-        <v>196027.2920895592</v>
+        <v>109357.2533714949</v>
       </c>
       <c r="S7">
-        <v>0.3922494432316235</v>
+        <v>0.4404383345614873</v>
       </c>
       <c r="T7">
-        <v>0.3922494432316236</v>
+        <v>0.4404383345614873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.122973333333332</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>21.36892</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.03888804453304685</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.03888804453304685</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>1.016612123053333</v>
+        <v>0.8943340051475556</v>
       </c>
       <c r="R8">
-        <v>9.149509107479997</v>
+        <v>8.049006046328</v>
       </c>
       <c r="S8">
-        <v>1.830811319687076E-05</v>
+        <v>3.241751880761949E-05</v>
       </c>
       <c r="T8">
-        <v>1.830811319687076E-05</v>
+        <v>3.241751880761949E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.122973333333332</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>21.36892</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.03888804453304685</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.03888804453304685</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>1054.828033656995</v>
+        <v>8636.810164171005</v>
       </c>
       <c r="R9">
-        <v>9493.45230291296</v>
+        <v>77731.29147753905</v>
       </c>
       <c r="S9">
-        <v>0.01899634148117643</v>
+        <v>0.313064195617451</v>
       </c>
       <c r="T9">
-        <v>0.01899634148117643</v>
+        <v>0.313064195617451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H10">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I10">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J10">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>1103.529020365435</v>
+        <v>4.35457435441</v>
       </c>
       <c r="R10">
-        <v>9931.761183288916</v>
+        <v>39.19116918969</v>
       </c>
       <c r="S10">
-        <v>0.01987339493867355</v>
+        <v>0.0001578431494506049</v>
       </c>
       <c r="T10">
-        <v>0.01987339493867355</v>
+        <v>0.0001578431494506049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3870006666666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H11">
-        <v>1.161002</v>
+        <v>91.53201</v>
       </c>
       <c r="I11">
-        <v>0.002112839463995207</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J11">
-        <v>0.002112839463995208</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.05523389614866667</v>
+        <v>2636.970298200691</v>
       </c>
       <c r="R11">
-        <v>0.497105065338</v>
+        <v>23732.73268380621</v>
       </c>
       <c r="S11">
-        <v>9.947042732058215E-07</v>
+        <v>0.09558401418824604</v>
       </c>
       <c r="T11">
-        <v>9.947042732058217E-07</v>
+        <v>0.09558401418824604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3870006666666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>1.161002</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.002112839463995207</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.002112839463995208</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>57.31021767744179</v>
+        <v>0.1940885420933333</v>
       </c>
       <c r="R12">
-        <v>515.791959096976</v>
+        <v>1.74679687884</v>
       </c>
       <c r="S12">
-        <v>0.001032096636251565</v>
+        <v>7.035256321955453E-06</v>
       </c>
       <c r="T12">
-        <v>0.001032096636251566</v>
+        <v>7.035256321955453E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3870006666666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>1.161002</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.002112839463995207</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.002112839463995208</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>59.95620741255578</v>
+        <v>1874.362244365583</v>
       </c>
       <c r="R13">
-        <v>539.605866713002</v>
+        <v>16869.26019929025</v>
       </c>
       <c r="S13">
-        <v>0.001079748123470436</v>
+        <v>0.06794125344589583</v>
       </c>
       <c r="T13">
-        <v>0.001079748123470436</v>
+        <v>0.06794125344589583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.91341533333334</v>
+        <v>0.258813</v>
       </c>
       <c r="H14">
-        <v>92.74024600000001</v>
+        <v>0.776439</v>
       </c>
       <c r="I14">
-        <v>0.1687725358349285</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J14">
-        <v>0.1687725358349286</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>4.412055376619334</v>
+        <v>0.036938567799</v>
       </c>
       <c r="R14">
-        <v>39.708498389574</v>
+        <v>0.332447110191</v>
       </c>
       <c r="S14">
-        <v>7.945646863171563E-05</v>
+        <v>1.338936806001291E-06</v>
       </c>
       <c r="T14">
-        <v>7.945646863171565E-05</v>
+        <v>1.338936806001291E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.91341533333334</v>
+        <v>0.258813</v>
       </c>
       <c r="H15">
-        <v>92.74024600000001</v>
+        <v>0.776439</v>
       </c>
       <c r="I15">
-        <v>0.1687725358349285</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J15">
-        <v>0.1687725358349286</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>4577.910878464895</v>
+        <v>22.36864001309101</v>
       </c>
       <c r="R15">
-        <v>41201.19790618405</v>
+        <v>201.317760117819</v>
       </c>
       <c r="S15">
-        <v>0.08244335146859584</v>
+        <v>0.000810810954466176</v>
       </c>
       <c r="T15">
-        <v>0.08244335146859585</v>
+        <v>0.0008108109544661759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.258813</v>
+      </c>
+      <c r="H16">
+        <v>0.776439</v>
+      </c>
+      <c r="I16">
+        <v>0.001388535150720334</v>
+      </c>
+      <c r="J16">
+        <v>0.001388535150720334</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.001646395764</v>
+      </c>
+      <c r="R16">
+        <v>0.014817561876</v>
+      </c>
+      <c r="S16">
+        <v>5.967800098962942E-08</v>
+      </c>
+      <c r="T16">
+        <v>5.967800098962941E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.258813</v>
+      </c>
+      <c r="H17">
+        <v>0.776439</v>
+      </c>
+      <c r="I17">
+        <v>0.001388535150720334</v>
+      </c>
+      <c r="J17">
+        <v>0.001388535150720334</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>15.899661185775</v>
+      </c>
+      <c r="R17">
+        <v>143.096950671975</v>
+      </c>
+      <c r="S17">
+        <v>0.0005763255814471671</v>
+      </c>
+      <c r="T17">
+        <v>0.000576325581447167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H16">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J16">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>4789.271185292917</v>
-      </c>
-      <c r="R16">
-        <v>43103.44066763625</v>
-      </c>
-      <c r="S16">
-        <v>0.086249727897701</v>
-      </c>
-      <c r="T16">
-        <v>0.08624972789770101</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.213844</v>
+      </c>
+      <c r="H18">
+        <v>33.641532</v>
+      </c>
+      <c r="I18">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="J18">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.142723</v>
+      </c>
+      <c r="N18">
+        <v>0.428169</v>
+      </c>
+      <c r="O18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q18">
+        <v>1.600473457212</v>
+      </c>
+      <c r="R18">
+        <v>14.404261114908</v>
+      </c>
+      <c r="S18">
+        <v>5.801342462842571E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.80134246284257E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.213844</v>
+      </c>
+      <c r="H19">
+        <v>33.641532</v>
+      </c>
+      <c r="I19">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="J19">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N19">
+        <v>259.283421</v>
+      </c>
+      <c r="O19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q19">
+        <v>969.1879449601082</v>
+      </c>
+      <c r="R19">
+        <v>8722.691504640972</v>
+      </c>
+      <c r="S19">
+        <v>0.03513079929089652</v>
+      </c>
+      <c r="T19">
+        <v>0.03513079929089651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.213844</v>
+      </c>
+      <c r="H20">
+        <v>33.641532</v>
+      </c>
+      <c r="I20">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="J20">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.019084</v>
+      </c>
+      <c r="O20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.071334999632</v>
+      </c>
+      <c r="R20">
+        <v>0.642014996688</v>
+      </c>
+      <c r="S20">
+        <v>2.585727120853859E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.585727120853859E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.213844</v>
+      </c>
+      <c r="H21">
+        <v>33.641532</v>
+      </c>
+      <c r="I21">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="J21">
+        <v>0.0601624206229761</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N21">
+        <v>184.299025</v>
+      </c>
+      <c r="O21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q21">
+        <v>688.9001719007</v>
+      </c>
+      <c r="R21">
+        <v>6200.101547106299</v>
+      </c>
+      <c r="S21">
+        <v>0.0249710221803303</v>
+      </c>
+      <c r="T21">
+        <v>0.0249710221803303</v>
       </c>
     </row>
   </sheetData>
